--- a/2.design/FocusData_项目数据库设计.xlsx
+++ b/2.design/FocusData_项目数据库设计.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="-45" windowWidth="11505" windowHeight="8115" tabRatio="510"/>
+    <workbookView xWindow="3945" yWindow="-45" windowWidth="11505" windowHeight="8115" tabRatio="510" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="清单" sheetId="13" r:id="rId1"/>
-    <sheet name="系统表" sheetId="3" r:id="rId2"/>
-    <sheet name="关系表" sheetId="11" r:id="rId3"/>
-    <sheet name="字典表" sheetId="17" r:id="rId4"/>
+    <sheet name="更新记录" sheetId="18" r:id="rId1"/>
+    <sheet name="清单" sheetId="13" r:id="rId2"/>
+    <sheet name="系统表" sheetId="3" r:id="rId3"/>
+    <sheet name="关系表" sheetId="11" r:id="rId4"/>
+    <sheet name="字典表" sheetId="17" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">清单!$A$1:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">系统表!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">清单!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">系统表!$A$1:$N$1</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="220">
   <si>
     <t>OutLeng</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1290,6 +1291,123 @@
   <si>
     <t>varchar(200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_DICT_LANGUAGE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGUAGE_ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGUAGE_CONTENT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自增</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生支持语言种类，比如英语、普通话、广东话等</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_DICT_LANGUAGE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_DICT_LANGUAGE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生语言种类</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生语言种类</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生语言种类</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016.5.21 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> FD_DICT_LANGUAGE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字典表，代表医生所支持语言种类，如英语、普通话、广东话等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOCTOR_LANGUAGE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生语言种类</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1442,7 +1560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1515,6 +1633,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1524,7 +1655,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1658,6 +1789,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1993,10 +2130,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2258,6 +2417,35 @@
       <c r="G12" s="38"/>
       <c r="H12" s="29"/>
     </row>
+    <row r="13" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="36">
+        <v>12</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G2"/>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -2266,15 +2454,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3144,13 +3332,13 @@
         <v>76</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="H44" s="22" t="s">
         <v>93</v>
@@ -3159,44 +3347,44 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="45" spans="4:12" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="30" t="s">
         <v>76</v>
       </c>
       <c r="E45" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F45" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="I45" s="8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I45" s="5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46" spans="4:12" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D46" s="30" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="5">
-        <v>50</v>
+      <c r="F46" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="I46" s="8">
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3206,14 +3394,17 @@
       <c r="E47" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="F47" s="22" t="s">
-        <v>53</v>
+      <c r="F47" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="I47" s="5">
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -3224,19 +3415,16 @@
         <v>77</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I48" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="30" t="s">
         <v>76</v>
       </c>
@@ -3244,18 +3432,38 @@
         <v>77</v>
       </c>
       <c r="F49" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D50" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="4:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="20"/>
-      <c r="E52" s="21"/>
+    <row r="53" spans="4:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3265,11 +3473,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4656,14 +4864,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4850,8 +5058,58 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="44"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="5">
+        <v>50</v>
+      </c>
+    </row>
     <row r="10" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/2.design/FocusData_项目数据库设计.xlsx
+++ b/2.design/FocusData_项目数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="-45" windowWidth="11505" windowHeight="8115" tabRatio="510" activeTab="3"/>
+    <workbookView xWindow="3945" yWindow="-45" windowWidth="11505" windowHeight="8115" tabRatio="510"/>
   </bookViews>
   <sheets>
     <sheet name="更新记录" sheetId="18" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="230">
   <si>
     <t>OutLeng</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1297,10 +1297,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>LANGUAGE_ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>LANGUAGE_CONTENT</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1366,9 +1362,38 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2016.5.21 </t>
-    </r>
+    <t>医生</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOCTOR_LANGUAGE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生语言种类</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生语言关系</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_REL_DOCTOR_LANGUAGE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_REL_DOCTOR_LANGUAGE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOCTOR_LANGUAGE_ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生语言关系</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1376,7 +1401,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>增加</t>
+      <t>医生语言关系</t>
     </r>
     <r>
       <rPr>
@@ -1384,7 +1409,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> FD_DICT_LANGUAGE </t>
+      <t>ID-</t>
     </r>
     <r>
       <rPr>
@@ -1393,21 +1418,77 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>自增</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGUAGE_ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANGUAGE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>语言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生语言关系</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生语言关系</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016.5.21 Alex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> FD_DICT_LANGUAGE </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>字典表，代表医生所支持语言种类，如英语、普通话、广东话等</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOCTOR_LANGUAGE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生语言种类</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2132,15 +2213,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2152,10 +2233,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2422,29 +2503,49 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="E13" s="36" t="s">
         <v>214</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>215</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="A14" s="36">
+        <v>13</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G2"/>
@@ -2459,10 +2560,10 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G44" sqref="G44"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3332,13 +3433,13 @@
         <v>76</v>
       </c>
       <c r="E44" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" s="18" t="s">
         <v>217</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>219</v>
       </c>
       <c r="H44" s="22" t="s">
         <v>93</v>
@@ -3475,13 +3576,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E72" sqref="E72"/>
+      <selection pane="bottomRight" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4743,7 +4844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="4:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="11" t="s">
         <v>155</v>
       </c>
@@ -4763,7 +4864,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="4:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="11" t="s">
         <v>155</v>
       </c>
@@ -4783,7 +4884,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="4:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="11" t="s">
         <v>155</v>
       </c>
@@ -4803,7 +4904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="4:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="11" t="s">
         <v>155</v>
       </c>
@@ -4820,7 +4921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="4:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D69" s="11" t="s">
         <v>155</v>
       </c>
@@ -4840,7 +4941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="4:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D70" s="11" t="s">
         <v>155</v>
       </c>
@@ -4856,6 +4957,156 @@
       <c r="H70" s="11" t="s">
         <v>44</v>
       </c>
+    </row>
+    <row r="72" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H72" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+    </row>
+    <row r="73" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D73" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" s="8"/>
+      <c r="L73" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D74" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="8"/>
+      <c r="L74" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D75" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I75" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D77" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I77" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I78" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -4871,7 +5122,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5063,16 +5314,16 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>32</v>
@@ -5095,13 +5346,13 @@
         <v>204</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>35</v>

--- a/2.design/FocusData_项目数据库设计.xlsx
+++ b/2.design/FocusData_项目数据库设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="3945" yWindow="-45" windowWidth="11505" windowHeight="8115" tabRatio="510"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="261">
   <si>
     <t>OutLeng</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CUSTOMER_USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -688,10 +684,6 @@
   </si>
   <si>
     <t>预约医生</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_CUSTOMER_USER</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1487,6 +1479,197 @@
         <charset val="134"/>
       </rPr>
       <t>字典表，代表医生所支持语言种类，如英语、普通话、广东话等</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人信息表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_PATIENT</t>
+  </si>
+  <si>
+    <t>FD_PATIENT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_CUSTOMER_USER</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约模块专用</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATIENT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>病人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自增</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHONE_MOBILE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDICARE_NO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDICARE_REF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>称呼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保ref</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER_USER_ID</t>
+  </si>
+  <si>
+    <t>CUSTOMER_USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属个人用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_PATIENT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2016.9.22 Alex </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> FD_PATIENT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统表，预约模块专用，一个注册的个人用户可以登记多个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>patient</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1641,7 +1824,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1714,19 +1897,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1736,7 +1906,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1870,15 +2040,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
     <cellStyle name="样式 1" xfId="3"/>
@@ -1925,7 +2098,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2211,17 +2384,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2235,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2279,7 +2457,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="41" t="s">
         <v>46</v>
@@ -2299,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>60</v>
@@ -2319,10 +2497,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>34</v>
@@ -2339,16 +2517,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="E5" s="36" t="s">
         <v>97</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>98</v>
       </c>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
@@ -2359,16 +2537,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>97</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>98</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -2379,19 +2557,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>98</v>
-      </c>
       <c r="F7" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G7" s="38"/>
       <c r="H7" s="29"/>
@@ -2401,13 +2579,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>38</v>
@@ -2421,19 +2599,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G9" s="38"/>
       <c r="H9" s="29"/>
@@ -2443,16 +2621,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="E10" s="36" t="s">
         <v>126</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>128</v>
       </c>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
@@ -2463,13 +2641,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>38</v>
@@ -2483,13 +2661,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>38</v>
@@ -2503,16 +2681,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C13" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="36" t="s">
         <v>212</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>214</v>
       </c>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
@@ -2523,13 +2701,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>38</v>
@@ -2539,13 +2717,25 @@
       <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="A15" s="36">
+        <v>14</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="38"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G2"/>
@@ -2557,13 +2747,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R53"/>
+  <dimension ref="A1:R66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2676,7 +2866,7 @@
         <v>56</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>35</v>
@@ -2696,7 +2886,7 @@
         <v>57</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>35</v>
@@ -2753,10 +2943,10 @@
         <v>48</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>35</v>
@@ -2773,10 +2963,10 @@
         <v>48</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>35</v>
@@ -2793,13 +2983,13 @@
         <v>48</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I9" s="5">
         <v>200</v>
@@ -2813,10 +3003,10 @@
         <v>48</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>35</v>
@@ -2833,10 +3023,10 @@
         <v>48</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>35</v>
@@ -2853,10 +3043,10 @@
         <v>48</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>35</v>
@@ -2873,13 +3063,13 @@
         <v>48</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I13" s="8">
         <v>200</v>
@@ -2967,10 +3157,10 @@
         <v>61</v>
       </c>
       <c r="F19" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="G19" s="23" t="s">
         <v>63</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>64</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>36</v>
@@ -2987,10 +3177,10 @@
         <v>60</v>
       </c>
       <c r="F20" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>35</v>
@@ -3007,10 +3197,10 @@
         <v>60</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>35</v>
@@ -3027,10 +3217,10 @@
         <v>60</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>35</v>
@@ -3047,13 +3237,13 @@
         <v>60</v>
       </c>
       <c r="F23" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="I23" s="5">
         <v>10</v>
@@ -3067,10 +3257,10 @@
         <v>60</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>35</v>
@@ -3087,10 +3277,10 @@
         <v>60</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>35</v>
@@ -3107,13 +3297,13 @@
         <v>60</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I26" s="5">
         <v>200</v>
@@ -3127,10 +3317,10 @@
         <v>60</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>35</v>
@@ -3147,10 +3337,10 @@
         <v>60</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>35</v>
@@ -3167,10 +3357,10 @@
         <v>60</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>35</v>
@@ -3187,10 +3377,10 @@
         <v>60</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>35</v>
@@ -3207,10 +3397,10 @@
         <v>60</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>35</v>
@@ -3227,13 +3417,13 @@
         <v>60</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>39</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I32" s="8">
         <v>200</v>
@@ -3315,34 +3505,34 @@
     </row>
     <row r="38" spans="4:12" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D38" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="F38" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="G38" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>81</v>
       </c>
       <c r="H38" s="23"/>
       <c r="L38" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="32" t="s">
-        <v>77</v>
-      </c>
       <c r="F39" s="22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>35</v>
@@ -3353,16 +3543,16 @@
     </row>
     <row r="40" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="32" t="s">
-        <v>77</v>
-      </c>
       <c r="F40" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>35</v>
@@ -3373,16 +3563,16 @@
     </row>
     <row r="41" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D41" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="32" t="s">
-        <v>77</v>
-      </c>
       <c r="F41" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="18" t="s">
         <v>87</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>88</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>35</v>
@@ -3393,16 +3583,16 @@
     </row>
     <row r="42" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D42" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="32" t="s">
-        <v>77</v>
-      </c>
       <c r="F42" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="18" t="s">
         <v>89</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>90</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>36</v>
@@ -3410,19 +3600,19 @@
     </row>
     <row r="43" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="G43" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="H43" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="G43" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>203</v>
       </c>
       <c r="I43" s="5">
         <v>50</v>
@@ -3430,19 +3620,19 @@
     </row>
     <row r="44" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D44" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="F44" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="G44" s="18" t="s">
-        <v>217</v>
-      </c>
       <c r="H44" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I44" s="5">
         <v>2000</v>
@@ -3450,19 +3640,19 @@
     </row>
     <row r="45" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="32" t="s">
-        <v>77</v>
-      </c>
       <c r="F45" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="G45" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>93</v>
       </c>
       <c r="I45" s="5">
         <v>2000</v>
@@ -3470,19 +3660,19 @@
     </row>
     <row r="46" spans="4:12" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D46" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="32" t="s">
-        <v>77</v>
-      </c>
       <c r="F46" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>39</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I46" s="8">
         <v>200</v>
@@ -3490,10 +3680,10 @@
     </row>
     <row r="47" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D47" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="32" t="s">
         <v>76</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>77</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>15</v>
@@ -3510,10 +3700,10 @@
     </row>
     <row r="48" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D48" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="32" t="s">
         <v>76</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>77</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>53</v>
@@ -3525,12 +3715,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="4:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="32" t="s">
         <v>76</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>77</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>54</v>
@@ -3545,12 +3735,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="4:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D50" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="32" t="s">
         <v>76</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>77</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>55</v>
@@ -3562,9 +3752,297 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="4:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
+    <row r="52" spans="4:12" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F53" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="G53" s="48" t="s">
+        <v>256</v>
+      </c>
+      <c r="H53" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="I53" s="49"/>
+      <c r="L53" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="G54" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G55" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D56" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D57" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E57" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D58" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I58" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D60" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I60" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D62" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I62" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D63" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D64" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="4:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D65" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="4:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D66" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -3579,10 +4057,10 @@
   <dimension ref="A1:R78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomRight" activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3669,16 +4147,16 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>32</v>
@@ -3687,7 +4165,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -3698,16 +4176,16 @@
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>96</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>49</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>32</v>
@@ -3719,16 +4197,16 @@
     </row>
     <row r="4" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>96</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>32</v>
@@ -3740,10 +4218,10 @@
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>96</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
@@ -3752,7 +4230,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I5" s="8">
         <v>50</v>
@@ -3760,10 +4238,10 @@
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>96</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>16</v>
@@ -3778,10 +4256,10 @@
     </row>
     <row r="7" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>96</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>17</v>
@@ -3790,7 +4268,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I7" s="8">
         <v>50</v>
@@ -3798,10 +4276,10 @@
     </row>
     <row r="8" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="32" t="s">
         <v>95</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>96</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>18</v>
@@ -3819,16 +4297,16 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>105</v>
-      </c>
       <c r="F10" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>32</v>
@@ -3837,7 +4315,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
@@ -3848,36 +4326,36 @@
     </row>
     <row r="11" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>44</v>
@@ -3885,16 +4363,16 @@
     </row>
     <row r="13" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>32</v>
@@ -3902,19 +4380,19 @@
     </row>
     <row r="14" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>39</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I14" s="8">
         <v>200</v>
@@ -3922,10 +4400,10 @@
     </row>
     <row r="15" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>41</v>
@@ -3934,7 +4412,7 @@
         <v>23</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I15" s="8">
         <v>50</v>
@@ -3942,10 +4420,10 @@
     </row>
     <row r="16" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>53</v>
@@ -3959,10 +4437,10 @@
     </row>
     <row r="17" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>54</v>
@@ -3971,7 +4449,7 @@
         <v>25</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I17" s="8">
         <v>50</v>
@@ -3979,10 +4457,10 @@
     </row>
     <row r="18" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>55</v>
@@ -3999,16 +4477,16 @@
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>32</v>
@@ -4017,7 +4495,7 @@
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
@@ -4028,36 +4506,36 @@
     </row>
     <row r="21" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>44</v>
@@ -4065,16 +4543,16 @@
     </row>
     <row r="23" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>32</v>
@@ -4082,19 +4560,19 @@
     </row>
     <row r="24" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>39</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I24" s="8">
         <v>200</v>
@@ -4102,19 +4580,19 @@
     </row>
     <row r="25" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="20" t="s">
+      <c r="G25" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="H25" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="I25" s="8">
         <v>50</v>
@@ -4122,10 +4600,10 @@
     </row>
     <row r="26" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>41</v>
@@ -4134,7 +4612,7 @@
         <v>23</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I26" s="8">
         <v>50</v>
@@ -4142,10 +4620,10 @@
     </row>
     <row r="27" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>53</v>
@@ -4159,10 +4637,10 @@
     </row>
     <row r="28" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>54</v>
@@ -4171,7 +4649,7 @@
         <v>25</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I28" s="8">
         <v>50</v>
@@ -4179,10 +4657,10 @@
     </row>
     <row r="29" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>55</v>
@@ -4199,16 +4677,16 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>32</v>
@@ -4217,7 +4695,7 @@
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
       <c r="L31" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
@@ -4228,76 +4706,76 @@
     </row>
     <row r="32" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="G32" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>32</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D33" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="L33" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>44</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>35</v>
@@ -4311,19 +4789,19 @@
     </row>
     <row r="36" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D36" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G36" s="21" t="s">
         <v>39</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I36" s="8">
         <v>200</v>
@@ -4331,10 +4809,10 @@
     </row>
     <row r="37" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D37" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>41</v>
@@ -4343,7 +4821,7 @@
         <v>23</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I37" s="8">
         <v>50</v>
@@ -4351,10 +4829,10 @@
     </row>
     <row r="38" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D38" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>53</v>
@@ -4368,10 +4846,10 @@
     </row>
     <row r="39" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D39" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>54</v>
@@ -4380,7 +4858,7 @@
         <v>25</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I39" s="8">
         <v>50</v>
@@ -4388,10 +4866,10 @@
     </row>
     <row r="40" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>55</v>
@@ -4408,16 +4886,16 @@
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>32</v>
@@ -4435,79 +4913,79 @@
     </row>
     <row r="43" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G43" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>32</v>
       </c>
       <c r="L43" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D44" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F44" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="L44" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G45" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>44</v>
       </c>
       <c r="L45" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D46" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I46" s="8">
         <v>50</v>
@@ -4518,19 +4996,19 @@
     </row>
     <row r="47" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D47" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>39</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I47" s="8">
         <v>200</v>
@@ -4538,10 +5016,10 @@
     </row>
     <row r="48" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D48" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>41</v>
@@ -4550,7 +5028,7 @@
         <v>23</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I48" s="8">
         <v>50</v>
@@ -4558,10 +5036,10 @@
     </row>
     <row r="49" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>53</v>
@@ -4575,10 +5053,10 @@
     </row>
     <row r="50" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D50" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>54</v>
@@ -4587,7 +5065,7 @@
         <v>25</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I50" s="8">
         <v>50</v>
@@ -4595,10 +5073,10 @@
     </row>
     <row r="51" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D51" s="20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>55</v>
@@ -4615,23 +5093,23 @@
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
       <c r="K53" s="10"/>
       <c r="L53" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
@@ -4642,16 +5120,16 @@
     </row>
     <row r="54" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D54" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G54" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>32</v>
@@ -4662,39 +5140,39 @@
     </row>
     <row r="55" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D55" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F55" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="L55" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="L55" s="11" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D56" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>39</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I56" s="8">
         <v>200</v>
@@ -4702,10 +5180,10 @@
     </row>
     <row r="57" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D57" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F57" s="11" t="s">
         <v>41</v>
@@ -4714,7 +5192,7 @@
         <v>23</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I57" s="8">
         <v>50</v>
@@ -4722,10 +5200,10 @@
     </row>
     <row r="58" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D58" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>53</v>
@@ -4739,10 +5217,10 @@
     </row>
     <row r="59" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D59" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>54</v>
@@ -4751,7 +5229,7 @@
         <v>25</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I59" s="8">
         <v>50</v>
@@ -4759,10 +5237,10 @@
     </row>
     <row r="60" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D60" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>55</v>
@@ -4779,23 +5257,23 @@
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" s="19" t="s">
-        <v>157</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
       <c r="L62" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M62" s="10"/>
       <c r="N62" s="10"/>
@@ -4806,16 +5284,16 @@
     </row>
     <row r="63" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D63" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F63" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G63" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>32</v>
@@ -4826,16 +5304,16 @@
     </row>
     <row r="64" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D64" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H64" s="20" t="s">
         <v>32</v>
@@ -4846,19 +5324,19 @@
     </row>
     <row r="65" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I65" s="8">
         <v>50</v>
@@ -4866,19 +5344,19 @@
     </row>
     <row r="66" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G66" s="21" t="s">
         <v>39</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I66" s="8">
         <v>200</v>
@@ -4886,10 +5364,10 @@
     </row>
     <row r="67" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F67" s="20" t="s">
         <v>41</v>
@@ -4898,7 +5376,7 @@
         <v>23</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I67" s="8">
         <v>50</v>
@@ -4906,10 +5384,10 @@
     </row>
     <row r="68" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>53</v>
@@ -4923,10 +5401,10 @@
     </row>
     <row r="69" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D69" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>54</v>
@@ -4935,7 +5413,7 @@
         <v>25</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I69" s="8">
         <v>50</v>
@@ -4943,10 +5421,10 @@
     </row>
     <row r="70" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D70" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F70" s="11" t="s">
         <v>55</v>
@@ -4963,16 +5441,16 @@
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E72" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="E72" s="17" t="s">
-        <v>222</v>
-      </c>
       <c r="F72" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="G72" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="G72" s="19" t="s">
-        <v>223</v>
       </c>
       <c r="H72" s="19" t="s">
         <v>32</v>
@@ -4981,7 +5459,7 @@
       <c r="J72" s="10"/>
       <c r="K72" s="10"/>
       <c r="L72" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
@@ -4992,16 +5470,16 @@
     </row>
     <row r="73" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D73" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G73" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>32</v>
@@ -5013,16 +5491,16 @@
     </row>
     <row r="74" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D74" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G74" s="26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>32</v>
@@ -5034,10 +5512,10 @@
     </row>
     <row r="75" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D75" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>15</v>
@@ -5046,7 +5524,7 @@
         <v>23</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I75" s="8">
         <v>50</v>
@@ -5054,10 +5532,10 @@
     </row>
     <row r="76" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D76" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>16</v>
@@ -5072,10 +5550,10 @@
     </row>
     <row r="77" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D77" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>17</v>
@@ -5084,7 +5562,7 @@
         <v>25</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I77" s="8">
         <v>50</v>
@@ -5092,10 +5570,10 @@
     </row>
     <row r="78" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D78" s="30" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>18</v>
@@ -5200,16 +5678,16 @@
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>32</v>
@@ -5218,7 +5696,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
@@ -5230,16 +5708,16 @@
     <row r="3" spans="1:18" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="45"/>
       <c r="D3" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>121</v>
-      </c>
       <c r="G3" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>35</v>
@@ -5261,16 +5739,16 @@
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>167</v>
-      </c>
       <c r="G5" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>32</v>
@@ -5279,7 +5757,7 @@
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
@@ -5290,16 +5768,16 @@
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" t="s">
         <v>161</v>
       </c>
-      <c r="F6" t="s">
-        <v>163</v>
-      </c>
       <c r="G6" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>35</v>
@@ -5314,16 +5792,16 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>210</v>
-      </c>
       <c r="F8" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>32</v>
@@ -5332,7 +5810,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
@@ -5343,16 +5821,16 @@
     </row>
     <row r="9" spans="1:18" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>205</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>207</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>35</v>

--- a/2.design/FocusData_项目数据库设计.xlsx
+++ b/2.design/FocusData_项目数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="-45" windowWidth="11505" windowHeight="8115" tabRatio="510"/>
+    <workbookView xWindow="3945" yWindow="-45" windowWidth="11505" windowHeight="8115" tabRatio="510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="更新记录" sheetId="18" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">系统表!$A$1:$N$1</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="264">
   <si>
     <t>OutLeng</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1487,13 +1487,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>FD_PATIENT</t>
-  </si>
-  <si>
-    <t>FD_PATIENT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>FD_CUSTOMER_USER</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1503,10 +1496,6 @@
   </si>
   <si>
     <t>病人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PATIENT_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1539,42 +1528,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TITLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LAST_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIRST_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GENDER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAIL</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHONE_MOBILE</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEDICARE_NO</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEDICARE_REF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>称呼</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1612,9 +1565,6 @@
   </si>
   <si>
     <t>CUSTOMER_USER_ID</t>
-  </si>
-  <si>
-    <t>CUSTOMER_USER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1627,10 +1577,6 @@
   </si>
   <si>
     <t>PK</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_PATIENT</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1652,7 +1598,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> FD_PATIENT </t>
+      <t xml:space="preserve"> AP_PATIENT </t>
     </r>
     <r>
       <rPr>
@@ -1672,6 +1618,65 @@
       <t>patient</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP_PATIENT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP_PATIENT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATIENT_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER_USER_ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_USER</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_USER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone_mobile</t>
+  </si>
+  <si>
+    <t>medicare_no</t>
+  </si>
+  <si>
+    <t>medicare_ref</t>
   </si>
 </sst>
 </file>
@@ -2386,8 +2391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2399,7 +2404,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2414,7 +2419,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2477,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>60</v>
@@ -2721,7 +2726,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>228</v>
@@ -2733,7 +2738,7 @@
         <v>38</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G15" s="38"/>
     </row>
@@ -2749,11 +2754,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3157,7 +3162,7 @@
         <v>61</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>63</v>
@@ -3754,36 +3759,36 @@
     </row>
     <row r="52" spans="4:12" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" s="16" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L52" s="16" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="53" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="47" t="s">
-        <v>229</v>
+      <c r="D53" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E53" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F53" s="47" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G53" s="48" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="H53" s="47" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="I53" s="49"/>
       <c r="L53" s="20" t="s">
@@ -3791,17 +3796,17 @@
       </c>
     </row>
     <row r="54" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="47" t="s">
-        <v>229</v>
+      <c r="D54" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E54" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="G54" s="18" t="s">
         <v>233</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="G54" s="18" t="s">
-        <v>245</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>35</v>
@@ -3811,17 +3816,17 @@
       </c>
     </row>
     <row r="55" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="47" t="s">
-        <v>229</v>
+      <c r="D55" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E55" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>35</v>
@@ -3831,17 +3836,17 @@
       </c>
     </row>
     <row r="56" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="47" t="s">
-        <v>229</v>
+      <c r="D56" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>35</v>
@@ -3851,17 +3856,17 @@
       </c>
     </row>
     <row r="57" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D57" s="47" t="s">
-        <v>229</v>
+      <c r="D57" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E57" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>35</v>
@@ -3871,17 +3876,17 @@
       </c>
     </row>
     <row r="58" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D58" s="47" t="s">
-        <v>229</v>
+      <c r="D58" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E58" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>35</v>
@@ -3891,17 +3896,17 @@
       </c>
     </row>
     <row r="59" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D59" s="47" t="s">
-        <v>229</v>
+      <c r="D59" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E59" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>35</v>
@@ -3911,17 +3916,17 @@
       </c>
     </row>
     <row r="60" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D60" s="47" t="s">
-        <v>229</v>
+      <c r="D60" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>35</v>
@@ -3931,17 +3936,17 @@
       </c>
     </row>
     <row r="61" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D61" s="47" t="s">
-        <v>229</v>
+      <c r="D61" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E61" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>35</v>
@@ -3951,17 +3956,17 @@
       </c>
     </row>
     <row r="62" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D62" s="47" t="s">
-        <v>229</v>
+      <c r="D62" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>35</v>
@@ -3971,14 +3976,14 @@
       </c>
     </row>
     <row r="63" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D63" s="47" t="s">
-        <v>229</v>
+      <c r="D63" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E63" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>23</v>
@@ -3991,14 +3996,14 @@
       </c>
     </row>
     <row r="64" spans="4:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D64" s="47" t="s">
-        <v>229</v>
+      <c r="D64" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E64" s="48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>53</v>
+        <v>252</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>24</v>
@@ -4008,14 +4013,14 @@
       </c>
     </row>
     <row r="65" spans="4:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D65" s="23" t="s">
-        <v>229</v>
+      <c r="D65" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>54</v>
+        <v>253</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>25</v>
@@ -4028,14 +4033,14 @@
       </c>
     </row>
     <row r="66" spans="4:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D66" s="23" t="s">
-        <v>229</v>
+      <c r="D66" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>26</v>
